--- a/data/raw/technical_specs.xlsx
+++ b/data/raw/technical_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464040BA-206D-4D9F-B2C1-FF66EB443872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31AAE2-FF89-4A02-AAF7-BAC31817E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
+    <workbookView xWindow="29340" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>device_id</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/raw/technical_specs.xlsx
+++ b/data/raw/technical_specs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31AAE2-FF89-4A02-AAF7-BAC31817E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{DA31AAE2-FF89-4A02-AAF7-BAC31817E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0537D1FF-F487-4164-951B-A686EE7025AA}"/>
   <bookViews>
     <workbookView xWindow="29340" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{7A7D6C86-A6AC-403C-91E2-C0E7310CD44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,32 +36,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="48">
   <si>
     <t>device_id</t>
   </si>
   <si>
+    <t>spec_name</t>
+  </si>
+  <si>
+    <t>spec_boel_value</t>
+  </si>
+  <si>
+    <t>spec_num_value</t>
+  </si>
+  <si>
+    <t>spec_num_unit</t>
+  </si>
+  <si>
+    <t>spec_char_value</t>
+  </si>
+  <si>
     <t>001_sia_wd_emp</t>
   </si>
   <si>
-    <t>spec_name</t>
+    <t>water_resistance</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1; 30</t>
   </si>
   <si>
     <t>battery_life</t>
   </si>
   <si>
-    <t>water_resistance</t>
-  </si>
-  <si>
-    <t>spec_boel_value</t>
-  </si>
-  <si>
-    <t>spec_num_value</t>
-  </si>
-  <si>
-    <t>spec_char_value</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -77,41 +86,107 @@
     <t>minutes</t>
   </si>
   <si>
-    <t>spec_num_unit</t>
-  </si>
-  <si>
     <t>bio_cueing</t>
   </si>
   <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
     <t>bio_feedback</t>
   </si>
   <si>
-    <t>1; 30</t>
-  </si>
-  <si>
     <t>no display on the device, data can be viewed via a mobile application</t>
   </si>
   <si>
     <t>002_sia_wd_emp</t>
   </si>
   <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
     <t>device displays only the time and recording status, data can be viewed via a mobile application</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
+    <t>003_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>disposable batteries</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>004_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>005_sia_wd_fit</t>
+  </si>
+  <si>
+    <t>50; 10</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>data displayed on the device and via a mobile app</t>
+  </si>
+  <si>
+    <t>006_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>007_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>008_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>009_sia_wd_our</t>
+  </si>
+  <si>
+    <t>100; 720</t>
+  </si>
+  <si>
+    <t>010_sia_wd_min</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>011_sia_wd_nov</t>
+  </si>
+  <si>
+    <t>possible to see DBP, SBP and PR on the device screen; can be turned off</t>
+  </si>
+  <si>
+    <t>012_sia_wd_car</t>
+  </si>
+  <si>
+    <t>NP; NP</t>
+  </si>
+  <si>
+    <t>if the app is not setup in participant's phone specifically, they cannot see any data collected, if it is setup, they can see the moment-to-moment data such as HR, RR, Minute Volume, as well as the raw signals in real time</t>
+  </si>
+  <si>
+    <t>013_sia_wd_app</t>
+  </si>
+  <si>
+    <t>haptic feedback from the digital crown of the watch due to high or low heart rate detected</t>
+  </si>
+  <si>
+    <t>physiological information can be accessed via the device display</t>
+  </si>
+  <si>
+    <t>014_sia_wd_app</t>
+  </si>
+  <si>
+    <t>100;NP; can be used during scubadiving for up to 40m underwater and during high-speed water sports</t>
+  </si>
+  <si>
+    <t>015_sia_wd_app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +202,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +234,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,13 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD5DC-A81B-4D9C-8626-3C643AFB0E7B}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -516,189 +617,1457 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>90</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D23">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="6" customFormat="1">
+      <c r="A37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1">
+      <c r="A43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>336</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="6" customFormat="1">
+      <c r="A49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1">
+      <c r="A55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="6" customFormat="1">
+      <c r="A61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C61" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="6" customFormat="1">
+      <c r="A67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="6" customFormat="1">
+      <c r="A73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="6" customFormat="1">
+      <c r="A79" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="6" customFormat="1">
+      <c r="A85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>75</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="6" customFormat="1">
+      <c r="A91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006131D81E7FE36E44885B3A04523FCF5D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c9ab67dcfa560232a36bfe42a1cf3da">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71842362-ab5d-46b4-b35f-08dc9c6328ce" xmlns:ns3="8def90a7-5747-4395-b698-a599996d7912" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85c6a7f5c224f550ecad7291476c1ef0" ns2:_="" ns3:_="">
+    <xsd:import namespace="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <xsd:import namespace="8def90a7-5747-4395-b698-a599996d7912"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71842362-ab5d-46b4-b35f-08dc9c6328ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eaf58ba8-1e8d-4aec-a6f5-993f6032dc74" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8def90a7-5747-4395-b698-a599996d7912" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{790f85f4-cb36-4710-b643-af9b7c640f7d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8def90a7-5747-4395-b698-a599996d7912">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71842362-ab5d-46b4-b35f-08dc9c6328ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8def90a7-5747-4395-b698-a599996d7912" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074F0CD9-2C62-4236-BA95-73B525494F69}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115DF939-CB4B-46F0-80B1-752D36C00D13}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD617E0-B5F5-4399-A993-8775578DF621}"/>
 </file>